--- a/Proyectos-Finales-Dam-main (1)/Proyectos-Finales-Dam-main/interfaces/informe.xlsx
+++ b/Proyectos-Finales-Dam-main (1)/Proyectos-Finales-Dam-main/interfaces/informe.xlsx
@@ -274,7 +274,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:E19"/>
+  <dimension ref="A1:E15"/>
   <sheetViews>
     <sheetView workbookViewId="0" tabSelected="true"/>
   </sheetViews>
@@ -289,215 +289,207 @@
       <c r="A3" t="s" s="0">
         <v>1</v>
       </c>
+      <c r="B3" t="s" s="0">
+        <v>2</v>
+      </c>
+      <c r="C3" t="s" s="0">
+        <v>3</v>
+      </c>
+      <c r="D3" t="s" s="0">
+        <v>4</v>
+      </c>
+      <c r="E3" t="s" s="0">
+        <v>5</v>
+      </c>
     </row>
     <row r="4">
+      <c r="A4" t="n" s="0">
+        <v>1.0</v>
+      </c>
       <c r="B4" t="s" s="0">
-        <v>2</v>
+        <v>6</v>
+      </c>
+      <c r="C4" t="s" s="0">
+        <v>7</v>
+      </c>
+      <c r="D4" t="n" s="0">
+        <v>1200.5</v>
+      </c>
+      <c r="E4" t="n" s="0">
+        <v>10.0</v>
       </c>
     </row>
     <row r="5">
+      <c r="A5" t="n" s="0">
+        <v>2.0</v>
+      </c>
+      <c r="B5" t="s" s="0">
+        <v>8</v>
+      </c>
       <c r="C5" t="s" s="0">
-        <v>3</v>
+        <v>7</v>
+      </c>
+      <c r="D5" t="n" s="0">
+        <v>1000.0</v>
+      </c>
+      <c r="E5" t="n" s="0">
+        <v>50.0</v>
       </c>
     </row>
     <row r="6">
-      <c r="D6" t="s" s="0">
-        <v>4</v>
+      <c r="A6" t="n" s="0">
+        <v>3.0</v>
+      </c>
+      <c r="B6" t="s" s="0">
+        <v>9</v>
+      </c>
+      <c r="C6" t="s" s="0">
+        <v>7</v>
+      </c>
+      <c r="D6" t="n" s="0">
+        <v>500.0</v>
+      </c>
+      <c r="E6" t="n" s="0">
+        <v>120.0</v>
       </c>
     </row>
     <row r="7">
-      <c r="E7" t="s" s="0">
-        <v>5</v>
+      <c r="A7" t="n" s="0">
+        <v>4.0</v>
+      </c>
+      <c r="B7" t="s" s="0">
+        <v>10</v>
+      </c>
+      <c r="C7" t="s" s="0">
+        <v>11</v>
+      </c>
+      <c r="D7" t="n" s="0">
+        <v>20.0</v>
+      </c>
+      <c r="E7" t="n" s="0">
+        <v>200.0</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="n" s="0">
-        <v>1.0</v>
+        <v>5.0</v>
       </c>
       <c r="B8" t="s" s="0">
-        <v>6</v>
+        <v>12</v>
       </c>
       <c r="C8" t="s" s="0">
-        <v>7</v>
+        <v>11</v>
       </c>
       <c r="D8" t="n" s="0">
-        <v>1200.5</v>
+        <v>40.0</v>
       </c>
       <c r="E8" t="n" s="0">
-        <v>10.0</v>
+        <v>150.0</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="n" s="0">
-        <v>2.0</v>
+        <v>6.0</v>
       </c>
       <c r="B9" t="s" s="0">
-        <v>8</v>
+        <v>13</v>
       </c>
       <c r="C9" t="s" s="0">
-        <v>7</v>
+        <v>14</v>
       </c>
       <c r="D9" t="n" s="0">
-        <v>1000.0</v>
+        <v>60.0</v>
       </c>
       <c r="E9" t="n" s="0">
-        <v>50.0</v>
+        <v>80.0</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="n" s="0">
-        <v>3.0</v>
+        <v>7.0</v>
       </c>
       <c r="B10" t="s" s="0">
-        <v>9</v>
+        <v>15</v>
       </c>
       <c r="C10" t="s" s="0">
-        <v>7</v>
+        <v>16</v>
       </c>
       <c r="D10" t="n" s="0">
-        <v>500.0</v>
+        <v>100.0</v>
       </c>
       <c r="E10" t="n" s="0">
-        <v>120.0</v>
+        <v>30.0</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="n" s="0">
-        <v>4.0</v>
+        <v>8.0</v>
       </c>
       <c r="B11" t="s" s="0">
-        <v>10</v>
+        <v>17</v>
       </c>
       <c r="C11" t="s" s="0">
-        <v>11</v>
+        <v>16</v>
       </c>
       <c r="D11" t="n" s="0">
-        <v>20.0</v>
+        <v>150.0</v>
       </c>
       <c r="E11" t="n" s="0">
-        <v>200.0</v>
+        <v>40.0</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="n" s="0">
-        <v>5.0</v>
+        <v>9.0</v>
       </c>
       <c r="B12" t="s" s="0">
-        <v>12</v>
+        <v>18</v>
       </c>
       <c r="C12" t="s" s="0">
-        <v>11</v>
+        <v>7</v>
       </c>
       <c r="D12" t="n" s="0">
-        <v>40.0</v>
+        <v>700.0</v>
       </c>
       <c r="E12" t="n" s="0">
-        <v>150.0</v>
+        <v>60.0</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="n" s="0">
-        <v>6.0</v>
+        <v>10.0</v>
       </c>
       <c r="B13" t="s" s="0">
-        <v>13</v>
+        <v>19</v>
       </c>
       <c r="C13" t="s" s="0">
-        <v>14</v>
+        <v>7</v>
       </c>
       <c r="D13" t="n" s="0">
-        <v>60.0</v>
+        <v>80.0</v>
       </c>
       <c r="E13" t="n" s="0">
-        <v>80.0</v>
+        <v>90.0</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="n" s="0">
-        <v>7.0</v>
+        <v>11.0</v>
       </c>
       <c r="B14" t="s" s="0">
-        <v>15</v>
+        <v>20</v>
       </c>
       <c r="C14" t="s" s="0">
-        <v>16</v>
+        <v>21</v>
       </c>
       <c r="D14" t="n" s="0">
-        <v>100.0</v>
+        <v>150.0</v>
       </c>
       <c r="E14" t="n" s="0">
-        <v>30.0</v>
-      </c>
-    </row>
-    <row r="15">
-      <c r="A15" t="n" s="0">
-        <v>8.0</v>
-      </c>
-      <c r="B15" t="s" s="0">
-        <v>17</v>
-      </c>
-      <c r="C15" t="s" s="0">
-        <v>16</v>
-      </c>
-      <c r="D15" t="n" s="0">
-        <v>150.0</v>
-      </c>
-      <c r="E15" t="n" s="0">
-        <v>40.0</v>
-      </c>
-    </row>
-    <row r="16">
-      <c r="A16" t="n" s="0">
-        <v>9.0</v>
-      </c>
-      <c r="B16" t="s" s="0">
-        <v>18</v>
-      </c>
-      <c r="C16" t="s" s="0">
-        <v>7</v>
-      </c>
-      <c r="D16" t="n" s="0">
-        <v>700.0</v>
-      </c>
-      <c r="E16" t="n" s="0">
-        <v>60.0</v>
-      </c>
-    </row>
-    <row r="17">
-      <c r="A17" t="n" s="0">
-        <v>10.0</v>
-      </c>
-      <c r="B17" t="s" s="0">
-        <v>19</v>
-      </c>
-      <c r="C17" t="s" s="0">
-        <v>7</v>
-      </c>
-      <c r="D17" t="n" s="0">
-        <v>80.0</v>
-      </c>
-      <c r="E17" t="n" s="0">
-        <v>90.0</v>
-      </c>
-    </row>
-    <row r="18">
-      <c r="A18" t="n" s="0">
-        <v>11.0</v>
-      </c>
-      <c r="B18" t="s" s="0">
-        <v>20</v>
-      </c>
-      <c r="C18" t="s" s="0">
-        <v>21</v>
-      </c>
-      <c r="D18" t="n" s="0">
-        <v>150.0</v>
-      </c>
-      <c r="E18" t="n" s="0">
         <v>70.0</v>
       </c>
     </row>
-    <row r="19"/>
+    <row r="15"/>
   </sheetData>
   <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
   <drawing r:id="rId1"/>
@@ -506,7 +498,7 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:D18"/>
+  <dimension ref="A1:D15"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -521,177 +513,171 @@
       <c r="A3" t="s" s="0">
         <v>23</v>
       </c>
+      <c r="B3" t="s" s="0">
+        <v>2</v>
+      </c>
+      <c r="C3" t="s" s="0">
+        <v>24</v>
+      </c>
+      <c r="D3" t="s" s="0">
+        <v>25</v>
+      </c>
     </row>
     <row r="4">
+      <c r="A4" t="n" s="0">
+        <v>1.0</v>
+      </c>
       <c r="B4" t="s" s="0">
-        <v>2</v>
+        <v>26</v>
+      </c>
+      <c r="C4" t="s" s="0">
+        <v>27</v>
+      </c>
+      <c r="D4" t="s" s="0">
+        <v>28</v>
       </c>
     </row>
     <row r="5">
+      <c r="A5" t="n" s="0">
+        <v>2.0</v>
+      </c>
+      <c r="B5" t="s" s="0">
+        <v>26</v>
+      </c>
       <c r="C5" t="s" s="0">
-        <v>24</v>
+        <v>27</v>
+      </c>
+      <c r="D5" t="s" s="0">
+        <v>29</v>
       </c>
     </row>
     <row r="6">
+      <c r="A6" t="n" s="0">
+        <v>3.0</v>
+      </c>
+      <c r="B6" t="s" s="0">
+        <v>30</v>
+      </c>
+      <c r="C6" t="s" s="0">
+        <v>27</v>
+      </c>
       <c r="D6" t="s" s="0">
-        <v>25</v>
+        <v>31</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="n" s="0">
-        <v>1.0</v>
+        <v>4.0</v>
       </c>
       <c r="B7" t="s" s="0">
-        <v>26</v>
+        <v>32</v>
       </c>
       <c r="C7" t="s" s="0">
-        <v>27</v>
+        <v>33</v>
       </c>
       <c r="D7" t="s" s="0">
-        <v>28</v>
+        <v>34</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="n" s="0">
-        <v>2.0</v>
+        <v>5.0</v>
       </c>
       <c r="B8" t="s" s="0">
-        <v>26</v>
+        <v>35</v>
       </c>
       <c r="C8" t="s" s="0">
-        <v>27</v>
+        <v>36</v>
       </c>
       <c r="D8" t="s" s="0">
-        <v>29</v>
+        <v>37</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="n" s="0">
-        <v>3.0</v>
+        <v>6.0</v>
       </c>
       <c r="B9" t="s" s="0">
-        <v>30</v>
+        <v>38</v>
       </c>
       <c r="C9" t="s" s="0">
         <v>27</v>
       </c>
       <c r="D9" t="s" s="0">
-        <v>31</v>
+        <v>39</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="n" s="0">
-        <v>4.0</v>
+        <v>7.0</v>
       </c>
       <c r="B10" t="s" s="0">
-        <v>32</v>
+        <v>40</v>
       </c>
       <c r="C10" t="s" s="0">
-        <v>33</v>
+        <v>41</v>
       </c>
       <c r="D10" t="s" s="0">
-        <v>34</v>
+        <v>42</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="n" s="0">
-        <v>5.0</v>
+        <v>8.0</v>
       </c>
       <c r="B11" t="s" s="0">
-        <v>35</v>
+        <v>43</v>
       </c>
       <c r="C11" t="s" s="0">
-        <v>36</v>
+        <v>44</v>
       </c>
       <c r="D11" t="s" s="0">
-        <v>37</v>
+        <v>45</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="n" s="0">
-        <v>6.0</v>
+        <v>9.0</v>
       </c>
       <c r="B12" t="s" s="0">
-        <v>38</v>
+        <v>46</v>
       </c>
       <c r="C12" t="s" s="0">
-        <v>27</v>
+        <v>33</v>
       </c>
       <c r="D12" t="s" s="0">
-        <v>39</v>
+        <v>47</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="n" s="0">
-        <v>7.0</v>
+        <v>10.0</v>
       </c>
       <c r="B13" t="s" s="0">
-        <v>40</v>
+        <v>48</v>
       </c>
       <c r="C13" t="s" s="0">
-        <v>41</v>
+        <v>27</v>
       </c>
       <c r="D13" t="s" s="0">
-        <v>42</v>
+        <v>49</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="n" s="0">
-        <v>8.0</v>
+        <v>11.0</v>
       </c>
       <c r="B14" t="s" s="0">
-        <v>43</v>
+        <v>50</v>
       </c>
       <c r="C14" t="s" s="0">
-        <v>44</v>
+        <v>36</v>
       </c>
       <c r="D14" t="s" s="0">
-        <v>45</v>
-      </c>
-    </row>
-    <row r="15">
-      <c r="A15" t="n" s="0">
-        <v>9.0</v>
-      </c>
-      <c r="B15" t="s" s="0">
-        <v>46</v>
-      </c>
-      <c r="C15" t="s" s="0">
-        <v>33</v>
-      </c>
-      <c r="D15" t="s" s="0">
-        <v>47</v>
-      </c>
-    </row>
-    <row r="16">
-      <c r="A16" t="n" s="0">
-        <v>10.0</v>
-      </c>
-      <c r="B16" t="s" s="0">
-        <v>48</v>
-      </c>
-      <c r="C16" t="s" s="0">
-        <v>27</v>
-      </c>
-      <c r="D16" t="s" s="0">
-        <v>49</v>
-      </c>
-    </row>
-    <row r="17">
-      <c r="A17" t="n" s="0">
-        <v>11.0</v>
-      </c>
-      <c r="B17" t="s" s="0">
-        <v>50</v>
-      </c>
-      <c r="C17" t="s" s="0">
-        <v>36</v>
-      </c>
-      <c r="D17" t="s" s="0">
         <v>51</v>
       </c>
     </row>
-    <row r="18"/>
+    <row r="15"/>
   </sheetData>
   <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
   <drawing r:id="rId1"/>
@@ -700,7 +686,7 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:F20"/>
+  <dimension ref="A1:F15"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -715,253 +701,243 @@
       <c r="A3" t="s" s="0">
         <v>53</v>
       </c>
+      <c r="B3" t="s" s="0">
+        <v>23</v>
+      </c>
+      <c r="C3" t="s" s="0">
+        <v>1</v>
+      </c>
+      <c r="D3" t="s" s="0">
+        <v>54</v>
+      </c>
+      <c r="E3" t="s" s="0">
+        <v>55</v>
+      </c>
+      <c r="F3" t="s" s="0">
+        <v>56</v>
+      </c>
     </row>
     <row r="4">
-      <c r="B4" t="s" s="0">
-        <v>23</v>
+      <c r="A4" t="n" s="0">
+        <v>1.0</v>
+      </c>
+      <c r="B4" t="n" s="0">
+        <v>1.0</v>
+      </c>
+      <c r="C4" t="n" s="0">
+        <v>1.0</v>
+      </c>
+      <c r="D4" t="n" s="0">
+        <v>2.0</v>
+      </c>
+      <c r="E4" t="s" s="0">
+        <v>57</v>
+      </c>
+      <c r="F4" t="n" s="0">
+        <v>2401.0</v>
       </c>
     </row>
     <row r="5">
-      <c r="C5" t="s" s="0">
-        <v>1</v>
+      <c r="A5" t="n" s="0">
+        <v>2.0</v>
+      </c>
+      <c r="B5" t="n" s="0">
+        <v>1.0</v>
+      </c>
+      <c r="C5" t="n" s="0">
+        <v>2.0</v>
+      </c>
+      <c r="D5" t="n" s="0">
+        <v>1.0</v>
+      </c>
+      <c r="E5" t="s" s="0">
+        <v>58</v>
+      </c>
+      <c r="F5" t="n" s="0">
+        <v>500.0</v>
       </c>
     </row>
     <row r="6">
-      <c r="D6" t="s" s="0">
-        <v>54</v>
+      <c r="A6" t="n" s="0">
+        <v>3.0</v>
+      </c>
+      <c r="B6" t="n" s="0">
+        <v>2.0</v>
+      </c>
+      <c r="C6" t="n" s="0">
+        <v>3.0</v>
+      </c>
+      <c r="D6" t="n" s="0">
+        <v>2.0</v>
+      </c>
+      <c r="E6" t="s" s="0">
+        <v>59</v>
+      </c>
+      <c r="F6" t="n" s="0">
+        <v>40.0</v>
       </c>
     </row>
     <row r="7">
+      <c r="A7" t="n" s="0">
+        <v>4.0</v>
+      </c>
+      <c r="B7" t="n" s="0">
+        <v>3.0</v>
+      </c>
+      <c r="C7" t="n" s="0">
+        <v>1.0</v>
+      </c>
+      <c r="D7" t="n" s="0">
+        <v>1.0</v>
+      </c>
       <c r="E7" t="s" s="0">
-        <v>55</v>
+        <v>60</v>
+      </c>
+      <c r="F7" t="n" s="0">
+        <v>1000.0</v>
       </c>
     </row>
     <row r="8">
-      <c r="F8" t="s" s="0">
-        <v>56</v>
+      <c r="A8" t="n" s="0">
+        <v>5.0</v>
+      </c>
+      <c r="B8" t="n" s="0">
+        <v>4.0</v>
+      </c>
+      <c r="C8" t="n" s="0">
+        <v>4.0</v>
+      </c>
+      <c r="D8" t="n" s="0">
+        <v>1.0</v>
+      </c>
+      <c r="E8" t="s" s="0">
+        <v>61</v>
+      </c>
+      <c r="F8" t="n" s="0">
+        <v>40.0</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="n" s="0">
-        <v>1.0</v>
+        <v>6.0</v>
       </c>
       <c r="B9" t="n" s="0">
-        <v>1.0</v>
+        <v>5.0</v>
       </c>
       <c r="C9" t="n" s="0">
-        <v>1.0</v>
+        <v>5.0</v>
       </c>
       <c r="D9" t="n" s="0">
         <v>2.0</v>
       </c>
       <c r="E9" t="s" s="0">
-        <v>57</v>
+        <v>62</v>
       </c>
       <c r="F9" t="n" s="0">
-        <v>2401.0</v>
+        <v>120.0</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="n" s="0">
-        <v>2.0</v>
+        <v>7.0</v>
       </c>
       <c r="B10" t="n" s="0">
-        <v>1.0</v>
+        <v>6.0</v>
       </c>
       <c r="C10" t="n" s="0">
-        <v>2.0</v>
+        <v>6.0</v>
       </c>
       <c r="D10" t="n" s="0">
-        <v>1.0</v>
+        <v>3.0</v>
       </c>
       <c r="E10" t="s" s="0">
-        <v>58</v>
+        <v>63</v>
       </c>
       <c r="F10" t="n" s="0">
-        <v>500.0</v>
+        <v>300.0</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="n" s="0">
-        <v>3.0</v>
+        <v>8.0</v>
       </c>
       <c r="B11" t="n" s="0">
-        <v>2.0</v>
+        <v>7.0</v>
       </c>
       <c r="C11" t="n" s="0">
-        <v>3.0</v>
+        <v>7.0</v>
       </c>
       <c r="D11" t="n" s="0">
-        <v>2.0</v>
+        <v>1.0</v>
       </c>
       <c r="E11" t="s" s="0">
-        <v>59</v>
+        <v>64</v>
       </c>
       <c r="F11" t="n" s="0">
-        <v>40.0</v>
+        <v>150.0</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="n" s="0">
-        <v>4.0</v>
+        <v>9.0</v>
       </c>
       <c r="B12" t="n" s="0">
-        <v>3.0</v>
+        <v>8.0</v>
       </c>
       <c r="C12" t="n" s="0">
-        <v>1.0</v>
+        <v>8.0</v>
       </c>
       <c r="D12" t="n" s="0">
-        <v>1.0</v>
+        <v>2.0</v>
       </c>
       <c r="E12" t="s" s="0">
-        <v>60</v>
+        <v>65</v>
       </c>
       <c r="F12" t="n" s="0">
-        <v>1000.0</v>
+        <v>1400.0</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="n" s="0">
-        <v>5.0</v>
+        <v>10.0</v>
       </c>
       <c r="B13" t="n" s="0">
-        <v>4.0</v>
+        <v>9.0</v>
       </c>
       <c r="C13" t="n" s="0">
-        <v>4.0</v>
+        <v>9.0</v>
       </c>
       <c r="D13" t="n" s="0">
         <v>1.0</v>
       </c>
       <c r="E13" t="s" s="0">
-        <v>61</v>
+        <v>66</v>
       </c>
       <c r="F13" t="n" s="0">
-        <v>40.0</v>
+        <v>80.0</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="n" s="0">
-        <v>6.0</v>
+        <v>11.0</v>
       </c>
       <c r="B14" t="n" s="0">
-        <v>5.0</v>
+        <v>10.0</v>
       </c>
       <c r="C14" t="n" s="0">
-        <v>5.0</v>
+        <v>10.0</v>
       </c>
       <c r="D14" t="n" s="0">
-        <v>2.0</v>
+        <v>1.0</v>
       </c>
       <c r="E14" t="s" s="0">
-        <v>62</v>
+        <v>67</v>
       </c>
       <c r="F14" t="n" s="0">
-        <v>120.0</v>
-      </c>
-    </row>
-    <row r="15">
-      <c r="A15" t="n" s="0">
-        <v>7.0</v>
-      </c>
-      <c r="B15" t="n" s="0">
-        <v>6.0</v>
-      </c>
-      <c r="C15" t="n" s="0">
-        <v>6.0</v>
-      </c>
-      <c r="D15" t="n" s="0">
-        <v>3.0</v>
-      </c>
-      <c r="E15" t="s" s="0">
-        <v>63</v>
-      </c>
-      <c r="F15" t="n" s="0">
-        <v>300.0</v>
-      </c>
-    </row>
-    <row r="16">
-      <c r="A16" t="n" s="0">
-        <v>8.0</v>
-      </c>
-      <c r="B16" t="n" s="0">
-        <v>7.0</v>
-      </c>
-      <c r="C16" t="n" s="0">
-        <v>7.0</v>
-      </c>
-      <c r="D16" t="n" s="0">
-        <v>1.0</v>
-      </c>
-      <c r="E16" t="s" s="0">
-        <v>64</v>
-      </c>
-      <c r="F16" t="n" s="0">
         <v>150.0</v>
       </c>
     </row>
-    <row r="17">
-      <c r="A17" t="n" s="0">
-        <v>9.0</v>
-      </c>
-      <c r="B17" t="n" s="0">
-        <v>8.0</v>
-      </c>
-      <c r="C17" t="n" s="0">
-        <v>8.0</v>
-      </c>
-      <c r="D17" t="n" s="0">
-        <v>2.0</v>
-      </c>
-      <c r="E17" t="s" s="0">
-        <v>65</v>
-      </c>
-      <c r="F17" t="n" s="0">
-        <v>1400.0</v>
-      </c>
-    </row>
-    <row r="18">
-      <c r="A18" t="n" s="0">
-        <v>10.0</v>
-      </c>
-      <c r="B18" t="n" s="0">
-        <v>9.0</v>
-      </c>
-      <c r="C18" t="n" s="0">
-        <v>9.0</v>
-      </c>
-      <c r="D18" t="n" s="0">
-        <v>1.0</v>
-      </c>
-      <c r="E18" t="s" s="0">
-        <v>66</v>
-      </c>
-      <c r="F18" t="n" s="0">
-        <v>80.0</v>
-      </c>
-    </row>
-    <row r="19">
-      <c r="A19" t="n" s="0">
-        <v>11.0</v>
-      </c>
-      <c r="B19" t="n" s="0">
-        <v>10.0</v>
-      </c>
-      <c r="C19" t="n" s="0">
-        <v>10.0</v>
-      </c>
-      <c r="D19" t="n" s="0">
-        <v>1.0</v>
-      </c>
-      <c r="E19" t="s" s="0">
-        <v>67</v>
-      </c>
-      <c r="F19" t="n" s="0">
-        <v>150.0</v>
-      </c>
-    </row>
-    <row r="20"/>
+    <row r="15"/>
   </sheetData>
   <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
   <drawing r:id="rId1"/>
